--- a/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_BD10_Workflows_P1_150522.xlsx
+++ b/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_BD10_Workflows_P1_150522.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035" tabRatio="934" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035" tabRatio="934" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="243">
   <si>
     <t>Date</t>
   </si>
@@ -556,9 +556,6 @@
     <t>Number of transit days</t>
   </si>
   <si>
-    <t>Number of parcels (entry #1)</t>
-  </si>
-  <si>
     <t>Weight (entry #1)</t>
   </si>
   <si>
@@ -571,9 +568,6 @@
     <t>Height (entry #1)</t>
   </si>
   <si>
-    <t>Number of parcels (entry #2)</t>
-  </si>
-  <si>
     <t>Weight (entry #2)</t>
   </si>
   <si>
@@ -584,9 +578,6 @@
   </si>
   <si>
     <t>Height (entry #2)</t>
-  </si>
-  <si>
-    <t>Number of parcels (entry #3)</t>
   </si>
   <si>
     <t>Weight (entry #3)</t>
@@ -767,6 +758,18 @@
   </si>
   <si>
     <t>Acrónimo INCOTERM (official document).</t>
+  </si>
+  <si>
+    <t>Listado multi-valor</t>
+  </si>
+  <si>
+    <t>Number of parcels (#2)</t>
+  </si>
+  <si>
+    <t>Number of parcels (#1)</t>
+  </si>
+  <si>
+    <t>Number of parcels (#3)</t>
   </si>
 </sst>
 </file>
@@ -1021,9 +1024,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,9 +1084,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1113,6 +1110,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>9</v>
@@ -1727,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>147</v>
@@ -1907,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>9</v>
@@ -1924,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>147</v>
@@ -2021,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>9</v>
@@ -2038,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>147</v>
@@ -2134,118 +2137,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22">
@@ -2254,367 +2257,367 @@
       <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>212</v>
+      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>223</v>
+      <c r="E7" s="32" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>213</v>
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="E8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>137</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>138</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>226</v>
+        <v>196</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>214</v>
+      <c r="A10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>211</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33" t="s">
-        <v>215</v>
+      <c r="A11" s="30"/>
+      <c r="B11" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33" t="s">
-        <v>216</v>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="47" t="s">
-        <v>225</v>
+      <c r="D12" s="32"/>
+      <c r="E12" s="46" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>217</v>
+      <c r="A13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>214</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="47" t="s">
-        <v>224</v>
+      <c r="D13" s="32"/>
+      <c r="E13" s="46" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>218</v>
+      <c r="A14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>219</v>
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>220</v>
+      <c r="A16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>193</v>
+      <c r="A25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="33" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2630,55 +2633,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -2687,185 +2690,185 @@
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>146</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -2874,81 +2877,81 @@
       <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2965,55 +2968,55 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3022,133 +3025,133 @@
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>203</v>
+      <c r="C6" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>120</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
         <v>122</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -3157,71 +3160,71 @@
       <c r="D10" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -3230,91 +3233,91 @@
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3331,55 +3334,55 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3388,60 +3391,60 @@
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22">
@@ -3449,103 +3452,103 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="20"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -3554,181 +3557,181 @@
       <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>129</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="E19" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
-        <v>234</v>
+    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3746,54 +3749,54 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E18" sqref="A12:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3802,181 +3805,181 @@
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22">
         <v>123456</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -3985,89 +3988,89 @@
       <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4083,54 +4086,54 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E16" sqref="A10:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -4139,145 +4142,145 @@
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22">
         <v>123456</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -4286,96 +4289,96 @@
       <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4390,467 +4393,467 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <v>123456</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="52">
+        <v>255</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="52">
+        <v>255</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="51" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="54">
-        <v>255</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="54">
-        <v>255</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="54" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="54" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="54" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="54" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="54" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="54" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="54" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="54" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="54" t="s">
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="32" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -4859,162 +4862,162 @@
       <c r="D34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="22">
         <v>123456</v>
       </c>
       <c r="D37" s="22"/>
-      <c r="E37" s="33"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>193</v>
+      <c r="A38" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="22"/>
-      <c r="E38" s="33" t="s">
-        <v>194</v>
+      <c r="E38" s="32" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="33" t="s">
-        <v>195</v>
+      <c r="E39" s="32" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="22"/>
-      <c r="E40" s="33" t="s">
-        <v>195</v>
+      <c r="E40" s="32" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31" t="s">
         <v>171</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="22"/>
-      <c r="E41" s="33" t="s">
-        <v>195</v>
+      <c r="E41" s="32" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="31" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D42" s="22"/>
-      <c r="E42" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="32" t="s">
+      <c r="E42" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>173</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="22"/>
-      <c r="E43" s="33"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="32" t="s">
+      <c r="A44" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>168</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="22"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5030,54 +5033,54 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E18" sqref="A11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -5086,61 +5089,61 @@
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22">
@@ -5149,103 +5152,103 @@
       <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -5254,95 +5257,95 @@
       <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5366,112 +5369,112 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="A1" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="24"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22">
@@ -5480,116 +5483,116 @@
       <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="D7" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -5598,19 +5601,19 @@
       <c r="D12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -5619,17 +5622,17 @@
       <c r="D13" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -5638,34 +5641,34 @@
       <c r="D14" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -5674,88 +5677,88 @@
       <c r="D16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -5764,85 +5767,85 @@
       <c r="D22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="51"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5858,118 +5861,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E22:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22">
@@ -5978,237 +5981,237 @@
       <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="E7" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="E17" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>91</v>
       </c>
     </row>
